--- a/item_info.xlsx
+++ b/item_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\peer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DE8673-F651-448A-B160-D6B7ECC3810A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342CC6A3-E554-4699-BE8B-AD19784AF86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="295">
   <si>
     <t>scale</t>
   </si>
@@ -115,9 +115,6 @@
     <t>인기추구</t>
   </si>
   <si>
-    <t>자기보고(5점 리커트)</t>
-  </si>
-  <si>
     <t>SR1</t>
   </si>
   <si>
@@ -896,6 +893,22 @@
   </si>
   <si>
     <t>이 아이는 수업 시간에 기분이 좋아 보인다.</t>
+  </si>
+  <si>
+    <t>학생보고(5점 리커트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사보고(5점 리커트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사지명(5점 리커트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교사보고(학생평가 5점 리커트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1271,7 +1284,7 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1489,13 +1502,13 @@
         <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -1509,13 +1522,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -1529,13 +1542,13 @@
         <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -1546,16 +1559,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -1566,16 +1579,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -1586,16 +1599,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -1606,16 +1619,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -1626,16 +1639,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
@@ -1646,16 +1659,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -1666,16 +1679,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -1686,16 +1699,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
@@ -1706,19 +1719,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1726,16 +1739,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
@@ -1746,19 +1759,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1766,19 +1779,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1786,16 +1799,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
@@ -1806,16 +1819,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1826,16 +1839,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
@@ -1846,19 +1859,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1866,16 +1879,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
@@ -1886,16 +1899,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
@@ -1906,19 +1919,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1926,16 +1939,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
@@ -1946,16 +1959,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
@@ -1966,16 +1979,16 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
@@ -1986,16 +1999,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -2006,16 +2019,16 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -2026,16 +2039,16 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
@@ -2046,19 +2059,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,16 +2079,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
@@ -2086,16 +2099,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
@@ -2106,19 +2119,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2126,16 +2139,16 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -2146,16 +2159,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
@@ -2166,16 +2179,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
@@ -2186,16 +2199,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
@@ -2206,16 +2219,16 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
@@ -2226,16 +2239,16 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
@@ -2246,16 +2259,16 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>9</v>
@@ -2266,16 +2279,16 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>9</v>
@@ -2286,16 +2299,16 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>9</v>
@@ -2306,16 +2319,16 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>9</v>
@@ -2326,16 +2339,16 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>9</v>
@@ -2346,16 +2359,16 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>9</v>
@@ -2366,16 +2379,16 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>9</v>
@@ -2386,16 +2399,16 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>9</v>
@@ -2406,16 +2419,16 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2426,16 +2439,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2446,16 +2459,16 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2466,16 +2479,16 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -2486,16 +2499,16 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2506,16 +2519,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2526,16 +2539,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2546,16 +2559,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2566,16 +2579,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2586,16 +2599,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2606,16 +2619,16 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2626,16 +2639,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2646,16 +2659,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2666,16 +2679,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2686,16 +2699,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2706,16 +2719,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2726,16 +2739,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2746,16 +2759,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2766,16 +2779,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2786,16 +2799,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2806,16 +2819,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2826,16 +2839,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2846,16 +2859,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2866,16 +2879,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2886,16 +2899,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2906,16 +2919,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2926,16 +2939,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2946,16 +2959,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2966,16 +2979,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2986,16 +2999,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -3006,16 +3019,16 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -3026,16 +3039,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -3046,16 +3059,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -3066,16 +3079,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -3086,16 +3099,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -3106,16 +3119,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -3126,16 +3139,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -3146,16 +3159,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -3166,16 +3179,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -3186,16 +3199,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -3206,16 +3219,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -3226,16 +3239,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -3246,16 +3259,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -3266,16 +3279,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -3286,16 +3299,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -3306,16 +3319,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -3326,16 +3339,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -3346,16 +3359,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>9</v>
@@ -3366,16 +3379,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -3386,16 +3399,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>9</v>
@@ -3406,16 +3419,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>9</v>
@@ -3426,16 +3439,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>9</v>
@@ -3446,16 +3459,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>9</v>
@@ -3466,16 +3479,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3486,16 +3499,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>9</v>
@@ -3506,16 +3519,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3526,16 +3539,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D113" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>9</v>
@@ -3546,16 +3559,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>9</v>
@@ -3566,16 +3579,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>9</v>
@@ -3586,16 +3599,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>9</v>
@@ -3606,16 +3619,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3626,16 +3639,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3646,16 +3659,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3666,16 +3679,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3686,16 +3699,16 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3706,16 +3719,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3726,16 +3739,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>9</v>
@@ -3746,16 +3759,16 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3766,16 +3779,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>9</v>
@@ -3786,16 +3799,16 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3806,16 +3819,16 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
